--- a/image/medicationadministration.xlsx
+++ b/image/medicationadministration.xlsx
@@ -1160,46 +1160,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.25390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.19921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.08984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.3046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="120.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="60.18359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="44.69921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="120.87890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.83203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="45.46484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="100.578125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="20.3125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="98.36328125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="20.26171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/medicationadministration.xlsx
+++ b/image/medicationadministration.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="328">
   <si>
     <t>Path</t>
   </si>
@@ -595,7 +595,7 @@
     <t>.outboundRelationship[typeCode=PERT].target[A_SupportingClinicalStatement CMET minimal with many different choices of classCodes(ORG, ENC, PROC, SPLY, SBADM, OBS) and each of the act class codes draws from one or more of the following moodCodes (EVN, DEF, INT PRMS, RQO, PRP, APT, ARQ, GOL)]</t>
   </si>
   <si>
-    <t>MedicationAdministration.effective[x]</t>
+    <t>MedicationAdministration.occurence[x]</t>
   </si>
   <si>
     <t>dateTime
@@ -605,7 +605,7 @@
     <t>Start and end time of administration</t>
   </si>
   <si>
-    <t>A specific date/time or interval of time during which the administration took place (or did not take place, when the 'notGiven' attribute is true). For many administrations, such as swallowing a tablet the use of dateTime is more appropriate.</t>
+    <t>A specific date/time or interval of time during which the administration took place (or did not take place). For many administrations, such as swallowing a tablet the use of dateTime is more appropriate.</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -618,6 +618,22 @@
   </si>
   <si>
     <t>RXA-3-Date/Time Start of Administration / RXA-4-Date/Time End of Administration</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.recorded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>When the MedicationAdministration was first captured in the subject's record</t>
+  </si>
+  <si>
+    <t>The date the occurrence of the  MedicationAdministration was first captured in the record - potentially significantly after the occurrence of the event.</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
   </si>
   <si>
     <t>MedicationAdministration.performer</t>
@@ -1151,7 +1167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN44"/>
+  <dimension ref="A1:AN45"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3711,7 +3727,7 @@
         <v>42</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>41</v>
@@ -3786,25 +3802,25 @@
         <v>42</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AJ23" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>202</v>
-      </c>
       <c r="AM23" t="s" s="2">
-        <v>203</v>
+        <v>41</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>41</v>
@@ -3812,7 +3828,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3823,7 +3839,7 @@
         <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>41</v>
@@ -3832,16 +3848,16 @@
         <v>41</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3892,31 +3908,31 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>41</v>
@@ -3924,18 +3940,18 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>41</v>
@@ -3947,17 +3963,15 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>95</v>
+        <v>210</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>96</v>
+        <v>211</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>41</v>
@@ -4006,13 +4020,13 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>41</v>
@@ -4024,7 +4038,7 @@
         <v>41</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>41</v>
@@ -4038,11 +4052,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>214</v>
+        <v>94</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4055,16 +4069,16 @@
         <v>41</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>215</v>
+        <v>96</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>216</v>
@@ -4072,9 +4086,7 @@
       <c r="M26" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="N26" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>41</v>
       </c>
@@ -4140,7 +4152,7 @@
         <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>92</v>
+        <v>214</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>41</v>
@@ -4158,35 +4170,39 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>41</v>
       </c>
@@ -4210,37 +4226,37 @@
         <v>41</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>221</v>
+        <v>41</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>218</v>
-      </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>41</v>
@@ -4249,10 +4265,10 @@
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>223</v>
+        <v>41</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>41</v>
@@ -4266,7 +4282,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4274,7 +4290,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>50</v>
@@ -4286,16 +4302,16 @@
         <v>41</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>226</v>
+        <v>140</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4322,13 +4338,13 @@
         <v>41</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>41</v>
+        <v>226</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>41</v>
+        <v>227</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>41</v>
@@ -4346,10 +4362,10 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>50</v>
@@ -4361,10 +4377,10 @@
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>41</v>
@@ -4378,7 +4394,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4386,10 +4402,10 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>41</v>
@@ -4398,10 +4414,10 @@
         <v>41</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>232</v>
@@ -4434,55 +4450,55 @@
         <v>41</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="AK29" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>237</v>
-      </c>
       <c r="AL29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>238</v>
+        <v>41</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>41</v>
@@ -4490,7 +4506,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4513,17 +4529,15 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>41</v>
@@ -4548,13 +4562,13 @@
         <v>41</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>41</v>
+        <v>239</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>41</v>
+        <v>240</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>41</v>
@@ -4572,7 +4586,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4587,24 +4601,24 @@
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>246</v>
+        <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>41</v>
+        <v>243</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>247</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4615,7 +4629,7 @@
         <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>41</v>
@@ -4627,16 +4641,16 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4686,13 +4700,13 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>41</v>
@@ -4701,24 +4715,24 @@
         <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>255</v>
+        <v>41</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>41</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4729,7 +4743,7 @@
         <v>42</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>41</v>
@@ -4741,15 +4755,17 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="K32" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>41</v>
@@ -4798,13 +4814,13 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>41</v>
@@ -4813,16 +4829,16 @@
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>41</v>
+        <v>258</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>41</v>
@@ -4830,7 +4846,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4853,13 +4869,13 @@
         <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4910,7 +4926,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -4925,16 +4941,16 @@
         <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>41</v>
@@ -4942,7 +4958,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4953,7 +4969,7 @@
         <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>41</v>
@@ -4965,7 +4981,7 @@
         <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>196</v>
+        <v>268</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>269</v>
@@ -5022,22 +5038,22 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>272</v>
@@ -5077,13 +5093,13 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>206</v>
+        <v>274</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>207</v>
+        <v>275</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5134,7 +5150,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5146,13 +5162,13 @@
         <v>41</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>41</v>
+        <v>276</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>209</v>
+        <v>277</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>41</v>
@@ -5166,18 +5182,18 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>41</v>
@@ -5189,17 +5205,15 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>95</v>
+        <v>210</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>96</v>
+        <v>211</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>41</v>
@@ -5248,13 +5262,13 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>41</v>
@@ -5266,7 +5280,7 @@
         <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>41</v>
@@ -5280,11 +5294,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>214</v>
+        <v>94</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5297,16 +5311,16 @@
         <v>41</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>215</v>
+        <v>96</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>216</v>
@@ -5314,9 +5328,7 @@
       <c r="M37" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="N37" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>41</v>
       </c>
@@ -5382,7 +5394,7 @@
         <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>92</v>
+        <v>214</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>41</v>
@@ -5396,39 +5408,43 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>205</v>
+        <v>95</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>41</v>
       </c>
@@ -5476,13 +5492,13 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>41</v>
@@ -5494,7 +5510,7 @@
         <v>41</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>279</v>
+        <v>92</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>41</v>
@@ -5508,7 +5524,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5531,17 +5547,15 @@
         <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M39" t="s" s="2">
         <v>283</v>
       </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>41</v>
@@ -5566,13 +5580,13 @@
         <v>41</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>284</v>
+        <v>41</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>285</v>
+        <v>41</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>41</v>
@@ -5590,7 +5604,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5608,13 +5622,13 @@
         <v>41</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>287</v>
+        <v>41</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>41</v>
@@ -5622,7 +5636,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5648,12 +5662,14 @@
         <v>140</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>41</v>
@@ -5681,10 +5697,10 @@
         <v>143</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>41</v>
@@ -5702,7 +5718,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -5720,13 +5736,13 @@
         <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>41</v>
@@ -5734,7 +5750,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5760,14 +5776,12 @@
         <v>140</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>41</v>
@@ -5795,10 +5809,10 @@
         <v>143</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>41</v>
@@ -5816,7 +5830,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -5834,13 +5848,13 @@
         <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>41</v>
@@ -5848,7 +5862,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5871,16 +5885,16 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>304</v>
+        <v>140</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5906,13 +5920,13 @@
         <v>41</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>41</v>
+        <v>305</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>41</v>
@@ -5930,7 +5944,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -5948,13 +5962,13 @@
         <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>41</v>
@@ -5962,7 +5976,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5985,16 +5999,16 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6044,7 +6058,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6062,13 +6076,13 @@
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>41</v>
@@ -6076,7 +6090,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6087,7 +6101,7 @@
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>41</v>
@@ -6099,16 +6113,16 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6158,33 +6172,147 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F45" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AH44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK44" t="s" s="2">
+      <c r="G45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE45" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AL44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN44" t="s" s="2">
+      <c r="AF45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>41</v>
       </c>
     </row>

--- a/image/medicationadministration.xlsx
+++ b/image/medicationadministration.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="328">
   <si>
     <t>Path</t>
   </si>
@@ -595,7 +595,7 @@
     <t>.outboundRelationship[typeCode=PERT].target[A_SupportingClinicalStatement CMET minimal with many different choices of classCodes(ORG, ENC, PROC, SPLY, SBADM, OBS) and each of the act class codes draws from one or more of the following moodCodes (EVN, DEF, INT PRMS, RQO, PRP, APT, ARQ, GOL)]</t>
   </si>
   <si>
-    <t>MedicationAdministration.effective[x]</t>
+    <t>MedicationAdministration.occurence[x]</t>
   </si>
   <si>
     <t>dateTime
@@ -605,7 +605,7 @@
     <t>Start and end time of administration</t>
   </si>
   <si>
-    <t>A specific date/time or interval of time during which the administration took place (or did not take place, when the 'notGiven' attribute is true). For many administrations, such as swallowing a tablet the use of dateTime is more appropriate.</t>
+    <t>A specific date/time or interval of time during which the administration took place (or did not take place). For many administrations, such as swallowing a tablet the use of dateTime is more appropriate.</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -618,6 +618,22 @@
   </si>
   <si>
     <t>RXA-3-Date/Time Start of Administration / RXA-4-Date/Time End of Administration</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.recorded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>When the MedicationAdministration was first captured in the subject's record</t>
+  </si>
+  <si>
+    <t>The date the occurrence of the  MedicationAdministration was first captured in the record - potentially significantly after the occurrence of the event.</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
   </si>
   <si>
     <t>MedicationAdministration.performer</t>
@@ -1151,7 +1167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN44"/>
+  <dimension ref="A1:AN45"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1160,46 +1176,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.25390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.19921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.08984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.3046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="120.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="60.18359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="44.69921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="120.87890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.83203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="45.46484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="100.578125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="20.3125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="98.36328125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="20.26171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3711,7 +3727,7 @@
         <v>42</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>41</v>
@@ -3786,25 +3802,25 @@
         <v>42</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AJ23" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>202</v>
-      </c>
       <c r="AM23" t="s" s="2">
-        <v>203</v>
+        <v>41</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>41</v>
@@ -3812,7 +3828,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3823,7 +3839,7 @@
         <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>41</v>
@@ -3832,16 +3848,16 @@
         <v>41</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3892,31 +3908,31 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>41</v>
@@ -3924,18 +3940,18 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>41</v>
@@ -3947,17 +3963,15 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>95</v>
+        <v>210</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>96</v>
+        <v>211</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>41</v>
@@ -4006,13 +4020,13 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>41</v>
@@ -4024,7 +4038,7 @@
         <v>41</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>41</v>
@@ -4038,11 +4052,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>214</v>
+        <v>94</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4055,16 +4069,16 @@
         <v>41</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>215</v>
+        <v>96</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>216</v>
@@ -4072,9 +4086,7 @@
       <c r="M26" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="N26" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>41</v>
       </c>
@@ -4140,7 +4152,7 @@
         <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>92</v>
+        <v>214</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>41</v>
@@ -4158,35 +4170,39 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>41</v>
       </c>
@@ -4210,37 +4226,37 @@
         <v>41</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>221</v>
+        <v>41</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>218</v>
-      </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>41</v>
@@ -4249,10 +4265,10 @@
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>223</v>
+        <v>41</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>41</v>
@@ -4266,7 +4282,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4274,7 +4290,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>50</v>
@@ -4286,16 +4302,16 @@
         <v>41</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>226</v>
+        <v>140</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4322,13 +4338,13 @@
         <v>41</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>41</v>
+        <v>226</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>41</v>
+        <v>227</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>41</v>
@@ -4346,10 +4362,10 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>50</v>
@@ -4361,10 +4377,10 @@
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>41</v>
@@ -4378,7 +4394,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4386,10 +4402,10 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>41</v>
@@ -4398,10 +4414,10 @@
         <v>41</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>232</v>
@@ -4434,55 +4450,55 @@
         <v>41</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="AK29" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>237</v>
-      </c>
       <c r="AL29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>238</v>
+        <v>41</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>41</v>
@@ -4490,7 +4506,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4513,17 +4529,15 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>41</v>
@@ -4548,13 +4562,13 @@
         <v>41</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>41</v>
+        <v>239</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>41</v>
+        <v>240</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>41</v>
@@ -4572,7 +4586,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4587,24 +4601,24 @@
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>246</v>
+        <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>41</v>
+        <v>243</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>247</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4615,7 +4629,7 @@
         <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>41</v>
@@ -4627,16 +4641,16 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4686,13 +4700,13 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>41</v>
@@ -4701,24 +4715,24 @@
         <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>255</v>
+        <v>41</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>41</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4729,7 +4743,7 @@
         <v>42</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>41</v>
@@ -4741,15 +4755,17 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="K32" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>41</v>
@@ -4798,13 +4814,13 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>41</v>
@@ -4813,16 +4829,16 @@
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>41</v>
+        <v>258</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>41</v>
@@ -4830,7 +4846,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4853,13 +4869,13 @@
         <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4910,7 +4926,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -4925,16 +4941,16 @@
         <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>41</v>
@@ -4942,7 +4958,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4953,7 +4969,7 @@
         <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>41</v>
@@ -4965,7 +4981,7 @@
         <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>196</v>
+        <v>268</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>269</v>
@@ -5022,22 +5038,22 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>272</v>
@@ -5077,13 +5093,13 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>206</v>
+        <v>274</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>207</v>
+        <v>275</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5134,7 +5150,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5146,13 +5162,13 @@
         <v>41</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>41</v>
+        <v>276</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>209</v>
+        <v>277</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>41</v>
@@ -5166,18 +5182,18 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>41</v>
@@ -5189,17 +5205,15 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>95</v>
+        <v>210</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>96</v>
+        <v>211</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>41</v>
@@ -5248,13 +5262,13 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>41</v>
@@ -5266,7 +5280,7 @@
         <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>41</v>
@@ -5280,11 +5294,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>214</v>
+        <v>94</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5297,16 +5311,16 @@
         <v>41</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>215</v>
+        <v>96</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>216</v>
@@ -5314,9 +5328,7 @@
       <c r="M37" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="N37" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>41</v>
       </c>
@@ -5382,7 +5394,7 @@
         <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>92</v>
+        <v>214</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>41</v>
@@ -5396,39 +5408,43 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>205</v>
+        <v>95</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>41</v>
       </c>
@@ -5476,13 +5492,13 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>41</v>
@@ -5494,7 +5510,7 @@
         <v>41</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>279</v>
+        <v>92</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>41</v>
@@ -5508,7 +5524,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5531,17 +5547,15 @@
         <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M39" t="s" s="2">
         <v>283</v>
       </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>41</v>
@@ -5566,13 +5580,13 @@
         <v>41</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>284</v>
+        <v>41</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>285</v>
+        <v>41</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>41</v>
@@ -5590,7 +5604,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5608,13 +5622,13 @@
         <v>41</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>287</v>
+        <v>41</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>41</v>
@@ -5622,7 +5636,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5648,12 +5662,14 @@
         <v>140</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>41</v>
@@ -5681,10 +5697,10 @@
         <v>143</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>41</v>
@@ -5702,7 +5718,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -5720,13 +5736,13 @@
         <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>41</v>
@@ -5734,7 +5750,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5760,14 +5776,12 @@
         <v>140</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>41</v>
@@ -5795,10 +5809,10 @@
         <v>143</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>41</v>
@@ -5816,7 +5830,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -5834,13 +5848,13 @@
         <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>41</v>
@@ -5848,7 +5862,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5871,16 +5885,16 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>304</v>
+        <v>140</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5906,13 +5920,13 @@
         <v>41</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>41</v>
+        <v>305</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>41</v>
@@ -5930,7 +5944,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -5948,13 +5962,13 @@
         <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>41</v>
@@ -5962,7 +5976,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5985,16 +5999,16 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6044,7 +6058,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6062,13 +6076,13 @@
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>41</v>
@@ -6076,7 +6090,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6087,7 +6101,7 @@
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>41</v>
@@ -6099,16 +6113,16 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6158,33 +6172,147 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F45" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AH44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK44" t="s" s="2">
+      <c r="G45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE45" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AL44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN44" t="s" s="2">
+      <c r="AF45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>41</v>
       </c>
     </row>

--- a/image/medicationadministration.xlsx
+++ b/image/medicationadministration.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="327">
   <si>
     <t>Path</t>
   </si>
@@ -171,7 +171,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -666,10 +666,6 @@
   </si>
   <si>
     <t>MedicationAdministration.performer.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1176,46 +1172,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.19921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.25390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.3046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.08984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="120.87890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.83203125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="45.46484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="120.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="60.18359375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="44.69921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="98.36328125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="20.26171875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="100.578125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="20.3125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3963,13 +3959,13 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4020,7 +4016,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4038,7 +4034,7 @@
         <v>41</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>41</v>
@@ -4052,7 +4048,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4081,7 +4077,7 @@
         <v>96</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>98</v>
@@ -4134,7 +4130,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4152,7 +4148,7 @@
         <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>41</v>
@@ -4166,11 +4162,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4192,10 +4188,10 @@
         <v>95</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>98</v>
@@ -4250,7 +4246,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4282,7 +4278,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4308,10 +4304,10 @@
         <v>140</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4341,11 +4337,11 @@
         <v>143</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>227</v>
-      </c>
       <c r="Z28" t="s" s="2">
         <v>41</v>
       </c>
@@ -4362,7 +4358,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4377,10 +4373,10 @@
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>41</v>
@@ -4394,7 +4390,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4417,13 +4413,13 @@
         <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4474,7 +4470,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>50</v>
@@ -4489,10 +4485,10 @@
         <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>41</v>
@@ -4506,7 +4502,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4532,10 +4528,10 @@
         <v>140</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4565,11 +4561,11 @@
         <v>143</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="Y30" t="s" s="2">
-        <v>240</v>
-      </c>
       <c r="Z30" t="s" s="2">
         <v>41</v>
       </c>
@@ -4586,7 +4582,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4601,16 +4597,16 @@
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>41</v>
@@ -4618,7 +4614,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4641,16 +4637,16 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4700,7 +4696,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4715,24 +4711,24 @@
         <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>252</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4755,16 +4751,16 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4814,7 +4810,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -4829,16 +4825,16 @@
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>41</v>
@@ -4846,7 +4842,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4869,13 +4865,13 @@
         <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4926,7 +4922,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -4944,13 +4940,13 @@
         <v>41</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>41</v>
@@ -4958,7 +4954,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4981,13 +4977,13 @@
         <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5038,7 +5034,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5053,10 +5049,10 @@
         <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>41</v>
@@ -5070,7 +5066,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5096,10 +5092,10 @@
         <v>201</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5150,7 +5146,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5162,13 +5158,13 @@
         <v>41</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>41</v>
@@ -5182,7 +5178,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5205,13 +5201,13 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5262,7 +5258,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5280,7 +5276,7 @@
         <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>41</v>
@@ -5294,7 +5290,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5323,7 +5319,7 @@
         <v>96</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>98</v>
@@ -5376,7 +5372,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5394,7 +5390,7 @@
         <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>41</v>
@@ -5408,11 +5404,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5434,10 +5430,10 @@
         <v>95</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>98</v>
@@ -5492,7 +5488,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5524,7 +5520,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5547,13 +5543,13 @@
         <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>210</v>
+        <v>52</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5604,7 +5600,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5622,7 +5618,7 @@
         <v>41</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>41</v>
@@ -5636,7 +5632,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5662,13 +5658,13 @@
         <v>140</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5697,11 +5693,11 @@
         <v>143</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="Y40" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>41</v>
       </c>
@@ -5718,7 +5714,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -5736,13 +5732,13 @@
         <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>41</v>
@@ -5750,7 +5746,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5776,10 +5772,10 @@
         <v>140</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5809,11 +5805,11 @@
         <v>143</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="Y41" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="Y41" t="s" s="2">
-        <v>297</v>
-      </c>
       <c r="Z41" t="s" s="2">
         <v>41</v>
       </c>
@@ -5830,7 +5826,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -5848,13 +5844,13 @@
         <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>41</v>
@@ -5862,7 +5858,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5888,13 +5884,13 @@
         <v>140</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5923,11 +5919,11 @@
         <v>143</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>305</v>
-      </c>
       <c r="Z42" t="s" s="2">
         <v>41</v>
       </c>
@@ -5944,7 +5940,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -5962,13 +5958,13 @@
         <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>41</v>
@@ -5976,7 +5972,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5999,16 +5995,16 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6058,7 +6054,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6076,13 +6072,13 @@
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>41</v>
@@ -6090,7 +6086,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6113,16 +6109,16 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6172,7 +6168,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6190,13 +6186,13 @@
         <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>41</v>
@@ -6204,7 +6200,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6227,16 +6223,16 @@
         <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6286,7 +6282,7 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6304,7 +6300,7 @@
         <v>41</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>41</v>
